--- a/tesis_doctorado/datav2023/base_formatos_longv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_formatos_longv2023.xlsx
@@ -1015,7 +1015,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="313">
       <c r="A313">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="317">
       <c r="A317">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="318">
       <c r="A318">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="319">
       <c r="A319">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="322">
       <c r="A322">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="325">
       <c r="A325">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="327">
       <c r="A327">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="329">
       <c r="A329">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="330">
       <c r="A330">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="331">
       <c r="A331">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="332">
       <c r="A332">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="334">
       <c r="A334">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="340">
       <c r="A340">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="345">
       <c r="A345">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="346">
       <c r="A346">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="347">
       <c r="A347">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="348">
       <c r="A348">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="349">
       <c r="A349">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="350">
       <c r="A350">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="352">
       <c r="A352">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="353">
       <c r="A353">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
     </row>
     <row r="356">
       <c r="A356">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
     </row>
     <row r="357">
       <c r="A357">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="359">
       <c r="A359">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="360">
       <c r="A360">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="363">
       <c r="A363">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="366">
       <c r="A366">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
     </row>
     <row r="367">
       <c r="A367">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="368">
       <c r="A368">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="370">
       <c r="A370">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="372">
       <c r="A372">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="373">
       <c r="A373">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="374">
       <c r="A374">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="375">
       <c r="A375">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="376">
       <c r="A376">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="377">
       <c r="A377">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="378">
       <c r="A378">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="379">
       <c r="A379">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="380">
       <c r="A380">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="382">
       <c r="A382">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="383">
       <c r="A383">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="384">
       <c r="A384">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="385">
       <c r="A385">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="386">
       <c r="A386">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="387">
       <c r="A387">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="388">
       <c r="A388">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="389">
       <c r="A389">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="390">
       <c r="A390">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
     </row>
     <row r="392">
       <c r="A392">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="393">
       <c r="A393">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="394">
       <c r="A394">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="395">
       <c r="A395">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="396">
       <c r="A396">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="397">
       <c r="A397">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="398">
       <c r="A398">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="399">
       <c r="A399">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="400">
       <c r="A400">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="402">
       <c r="A402">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="403">
       <c r="A403">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="404">
       <c r="A404">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="405">
       <c r="A405">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="406">
       <c r="A406">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="407">
       <c r="A407">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="408">
       <c r="A408">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="409">
       <c r="A409">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="410">
       <c r="A410">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="412">
       <c r="A412">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="413">
       <c r="A413">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="414">
       <c r="A414">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="415">
       <c r="A415">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="416">
       <c r="A416">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
     </row>
     <row r="417">
       <c r="A417">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="418">
       <c r="A418">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="419">
       <c r="A419">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="420">
       <c r="A420">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="422">
       <c r="A422">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="423">
       <c r="A423">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
     </row>
     <row r="424">
       <c r="A424">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="425">
       <c r="A425">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="426">
       <c r="A426">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="427">
       <c r="A427">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="428">
       <c r="A428">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="429">
       <c r="A429">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="430">
       <c r="A430">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
     </row>
     <row r="432">
       <c r="A432">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
     </row>
     <row r="433">
       <c r="A433">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="434">
       <c r="A434">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="435">
       <c r="A435">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="436">
       <c r="A436">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="437">
       <c r="A437">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="438">
       <c r="A438">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="439">
       <c r="A439">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
     </row>
     <row r="440">
       <c r="A440">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="442">
       <c r="A442">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="443">
       <c r="A443">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="444">
       <c r="A444">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="445">
       <c r="A445">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="446">
       <c r="A446">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="447">
       <c r="A447">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="448">
       <c r="A448">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="449">
       <c r="A449">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="450">
       <c r="A450">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
     </row>
     <row r="451">
       <c r="A451">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="452">
       <c r="A452">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="453">
       <c r="A453">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="454">
       <c r="A454">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="455">
       <c r="A455">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
     </row>
     <row r="456">
       <c r="A456">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="457">
       <c r="A457">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="458">
       <c r="A458">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="459">
       <c r="A459">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="460">
       <c r="A460">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="461">
       <c r="A461">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="462">
       <c r="A462">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="463">
       <c r="A463">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="464">
       <c r="A464">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
     </row>
     <row r="465">
       <c r="A465">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="466">
       <c r="A466">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="467">
       <c r="A467">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="468">
       <c r="A468">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="469">
       <c r="A469">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="470">
       <c r="A470">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="471">
       <c r="A471">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="472">
       <c r="A472">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="473">
       <c r="A473">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="474">
       <c r="A474">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="475">
       <c r="A475">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
     </row>
     <row r="476">
       <c r="A476">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="477">
       <c r="A477">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="478">
       <c r="A478">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="479">
       <c r="A479">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="480">
       <c r="A480">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="481">
       <c r="A481">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="482">
       <c r="A482">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="483">
       <c r="A483">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="484">
       <c r="A484">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
     </row>
     <row r="485">
       <c r="A485">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="486">
       <c r="A486">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="487">
       <c r="A487">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="488">
       <c r="A488">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="489">
       <c r="A489">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
     </row>
     <row r="490">
       <c r="A490">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="491">
       <c r="A491">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="492">
       <c r="A492">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="493">
       <c r="A493">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="494">
       <c r="A494">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="495">
       <c r="A495">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="496">
       <c r="A496">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
     </row>
     <row r="497">
       <c r="A497">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="498">
       <c r="A498">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="499">
       <c r="A499">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
     </row>
     <row r="500">
       <c r="A500">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
     </row>
     <row r="501">
       <c r="A501">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
     </row>
     <row r="502">
       <c r="A502">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="503">
       <c r="A503">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="504">
       <c r="A504">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="505">
       <c r="A505">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="506">
       <c r="A506">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="507">
       <c r="A507">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="508">
       <c r="A508">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="509">
       <c r="A509">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
     </row>
     <row r="510">
       <c r="A510">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="511">
       <c r="A511">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
     </row>
     <row r="512">
       <c r="A512">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
     </row>
     <row r="513">
       <c r="A513">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="514">
       <c r="A514">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
     </row>
     <row r="515">
       <c r="A515">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
     </row>
     <row r="516">
       <c r="A516">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="517">
       <c r="A517">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="518">
       <c r="A518">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="519">
       <c r="A519">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
     </row>
     <row r="520">
       <c r="A520">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="521">
       <c r="A521">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
     </row>
     <row r="522">
       <c r="A522">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="523">
       <c r="A523">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="524">
       <c r="A524">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="525">
       <c r="A525">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="526">
       <c r="A526">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
     </row>
     <row r="527">
       <c r="A527">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
     </row>
     <row r="528">
       <c r="A528">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="529">
       <c r="A529">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
     </row>
     <row r="530">
       <c r="A530">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="531">
       <c r="A531">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
     </row>
     <row r="532">
       <c r="A532">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="533">
       <c r="A533">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="534">
       <c r="A534">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
     </row>
     <row r="535">
       <c r="A535">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="536">
       <c r="A536">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="537">
       <c r="A537">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="538">
       <c r="A538">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="539">
       <c r="A539">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="540">
       <c r="A540">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
     </row>
     <row r="541">
       <c r="A541">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="542">
       <c r="A542">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
     </row>
     <row r="543">
       <c r="A543">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
     </row>
     <row r="544">
       <c r="A544">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="545">
       <c r="A545">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
     </row>
     <row r="546">
       <c r="A546">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="547">
       <c r="A547">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
     </row>
     <row r="548">
       <c r="A548">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
     </row>
     <row r="549">
       <c r="A549">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
     </row>
     <row r="550">
       <c r="A550">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
     </row>
     <row r="551">
       <c r="A551">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
     </row>
     <row r="552">
       <c r="A552">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
     </row>
     <row r="553">
       <c r="A553">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="554">
       <c r="A554">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
     </row>
     <row r="555">
       <c r="A555">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="556">
       <c r="A556">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
     </row>
     <row r="557">
       <c r="A557">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
     </row>
     <row r="558">
       <c r="A558">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="559">
       <c r="A559">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="560">
       <c r="A560">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="561">
       <c r="A561">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
     </row>
     <row r="562">
       <c r="A562">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
     </row>
     <row r="563">
       <c r="A563">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="564">
       <c r="A564">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="565">
       <c r="A565">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
     </row>
     <row r="566">
       <c r="A566">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="567">
       <c r="A567">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="568">
       <c r="A568">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
     </row>
     <row r="569">
       <c r="A569">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
     </row>
     <row r="570">
       <c r="A570">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
